--- a/src/test/TestData/LoginTestDataAll.xlsx
+++ b/src/test/TestData/LoginTestDataAll.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61114E9E-F5A0-407A-A557-1BA45716EB2D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95D8B4D-6867-40FE-A4F0-F1E65770A7FC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
